--- a/data/mfg/seperations.xlsx
+++ b/data/mfg/seperations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daman\Desktop\ou_final_project\data\mfg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5723FA7-81D5-44EF-9737-3531E309A576}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{567C2D2A-555F-4353-80B7-C8697AF174F0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -293,7 +293,7 @@
         <xdr:cNvPr id="1026" name="_xssf_cell_comment" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEBDE3FA-3C6E-4E46-A5E4-A013D43584F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5F70BBF-B7A9-425B-AE5A-01E4EC89CD65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -627,7 +627,7 @@
   <dimension ref="A1:F134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="12" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -2486,7 +2486,7 @@
   <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddHeader>&amp;CBureau of Labor Statistics</oddHeader>
-    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: April 15, 2019 (10:09:19 PM)</oddFooter>
+    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: April 19, 2019 (09:13:53 AM)</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
